--- a/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/Beaulieu 08042016.xlsx
+++ b/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/Beaulieu 08042016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwyatt\Desktop\J. Beaulieu Chlorophyll 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBEAULIE\GitRepository\mulitResSurvey\ohio2016\inputData\J. Beaulieu Chlorophyll 2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15180" windowHeight="8580"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="15180" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="CHL-A" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -174,15 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +270,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -311,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,46 +491,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -522,14 +550,14 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -549,7 +577,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -569,7 +597,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -588,13 +616,8 @@
       <c r="F10">
         <v>1.9E-2</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -614,7 +637,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -634,7 +657,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -654,7 +677,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -674,7 +697,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -694,7 +717,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -714,7 +737,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -734,7 +757,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -754,7 +777,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -774,7 +797,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -794,7 +817,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -814,7 +837,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -834,7 +857,7 @@
         <v>1.46E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -854,7 +877,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -874,7 +897,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -894,7 +917,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -914,7 +937,7 @@
         <v>0.1008</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -934,7 +957,7 @@
         <v>9.9400000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -957,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -980,7 +1003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1023,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1043,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1040,7 +1063,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1060,7 +1083,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1103,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +1123,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1119,13 +1142,8 @@
       <c r="F36">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1144,13 +1162,8 @@
       <c r="F37">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1169,11 +1182,6 @@
       <c r="F38">
         <v>1.8E-3</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
